--- a/play/data/gg_all.xlsx
+++ b/play/data/gg_all.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="100" yWindow="0" windowWidth="25600" windowHeight="17540" tabRatio="585" activeTab="8"/>
+    <workbookView xWindow="100" yWindow="0" windowWidth="28060" windowHeight="17540" tabRatio="585" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="gg_Chile" sheetId="12" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="60">
   <si>
     <t>id</t>
   </si>
@@ -9173,7 +9173,7 @@
   <dimension ref="A2:AM44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="N32" sqref="N32"/>
+      <selection activeCell="AE21" sqref="AE21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
@@ -11024,9 +11024,8 @@
         <f t="shared" si="7"/>
         <v>0.03</v>
       </c>
-      <c r="AK14" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>-</v>
+      <c r="AK14" s="2">
+        <v>0</v>
       </c>
       <c r="AL14" s="3">
         <f t="shared" si="7"/>
@@ -11124,8 +11123,8 @@
       <c r="AD15" s="3">
         <v>1.08</v>
       </c>
-      <c r="AE15" s="2" t="s">
-        <v>46</v>
+      <c r="AE15" s="2">
+        <v>0</v>
       </c>
       <c r="AF15" s="3">
         <v>0.54</v>
@@ -11269,9 +11268,9 @@
         <f t="shared" si="8"/>
         <v>1.08</v>
       </c>
-      <c r="AD16" s="3" t="str">
+      <c r="AD16" s="3">
         <f t="shared" si="8"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="2">
         <f t="shared" si="8"/>
@@ -11297,9 +11296,8 @@
         <f t="shared" si="8"/>
         <v>0.27</v>
       </c>
-      <c r="AK16" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>-</v>
+      <c r="AK16" s="2">
+        <v>0</v>
       </c>
       <c r="AL16" s="3" t="str">
         <f t="shared" si="8"/>
@@ -11419,9 +11417,9 @@
         <f t="shared" si="9"/>
         <v>1.08</v>
       </c>
-      <c r="AC17" s="3" t="str">
+      <c r="AC17" s="3">
         <f t="shared" si="9"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="AD17" s="3">
         <f t="shared" si="9"/>
@@ -11451,9 +11449,8 @@
         <f t="shared" si="9"/>
         <v>-</v>
       </c>
-      <c r="AK17" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>-</v>
+      <c r="AK17" s="2">
+        <v>0</v>
       </c>
       <c r="AL17" s="3">
         <f t="shared" si="9"/>
